--- a/public/export-excell.xlsx
+++ b/public/export-excell.xlsx
@@ -96,11 +96,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="d\ mmm\ yy"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="d\ mmm\ yy"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -215,14 +215,85 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,110 +308,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -351,6 +351,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -363,13 +375,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,145 +519,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,17 +671,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,15 +717,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,16 +737,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,162 +759,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -971,7 +971,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -979,7 +982,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1457,8 +1460,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:G27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1483,7 +1486,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="38"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" ht="18" spans="1:10">
       <c r="A2" s="3"/>
@@ -1495,7 +1498,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="39"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
@@ -1509,7 +1512,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="39"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="7"/>
@@ -1523,7 +1526,7 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="39"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="7"/>
@@ -1537,7 +1540,7 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="39"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="7"/>
@@ -1551,7 +1554,7 @@
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="39"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="7"/>
@@ -1565,7 +1568,7 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="39"/>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" ht="15.75" spans="1:10">
       <c r="A8" s="9"/>
@@ -1579,7 +1582,7 @@
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="40"/>
+      <c r="J8" s="41"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="12"/>
@@ -1627,7 +1630,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="5"/>
-      <c r="J12" s="39"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:10">
       <c r="A13" s="7"/>
@@ -1640,17 +1643,17 @@
       <c r="H14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="42" t="s">
+      <c r="I14" s="42"/>
+      <c r="J14" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="43"/>
+      <c r="L14" s="44"/>
     </row>
     <row r="15" ht="18" spans="1:10">
       <c r="A15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="7"/>
@@ -1658,14 +1661,13 @@
         <v>11</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="39"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="7"/>
       <c r="G17" s="24"/>
-      <c r="H17"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="39"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="7"/>
@@ -1673,14 +1675,14 @@
       <c r="H18" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7"/>
@@ -1688,13 +1690,13 @@
         <v>13</v>
       </c>
       <c r="I20" s="5"/>
-      <c r="J20" s="39"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="39"/>
+      <c r="J21" s="40"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="7"/>
@@ -1702,13 +1704,13 @@
         <v>14</v>
       </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="39"/>
+      <c r="J22" s="40"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="39"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="7"/>
@@ -1716,13 +1718,13 @@
         <v>15</v>
       </c>
       <c r="I24" s="5"/>
-      <c r="J24" s="39"/>
+      <c r="J24" s="40"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="7"/>
       <c r="H25" s="27"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="39"/>
+      <c r="J25" s="40"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="7"/>
@@ -1730,7 +1732,7 @@
         <v>16</v>
       </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="50"/>
+      <c r="J26" s="51"/>
     </row>
     <row r="27" ht="93.75" customHeight="1" spans="1:10">
       <c r="A27" s="28"/>
@@ -1742,7 +1744,7 @@
       <c r="G27" s="30"/>
       <c r="H27" s="31"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="39"/>
+      <c r="J27" s="40"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="7"/>
@@ -1750,13 +1752,13 @@
         <v>17</v>
       </c>
       <c r="I28" s="5"/>
-      <c r="J28" s="39"/>
+      <c r="J28" s="40"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="39"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="7"/>
@@ -1764,13 +1766,13 @@
         <v>18</v>
       </c>
       <c r="I30" s="5"/>
-      <c r="J30" s="39"/>
+      <c r="J30" s="40"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="7"/>
       <c r="H31" s="32"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="39"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="7"/>
@@ -1778,13 +1780,13 @@
         <v>19</v>
       </c>
       <c r="I32" s="5"/>
-      <c r="J32" s="39"/>
+      <c r="J32" s="40"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="39"/>
+      <c r="J33" s="40"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="7"/>
@@ -1792,19 +1794,19 @@
         <v>20</v>
       </c>
       <c r="I34" s="5"/>
-      <c r="J34" s="39"/>
+      <c r="J34" s="40"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="7"/>
       <c r="H35" s="32"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="39"/>
+      <c r="J35" s="40"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="7"/>
       <c r="H36" s="32"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="39"/>
+      <c r="J36" s="40"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="7"/>
@@ -1812,7 +1814,7 @@
         <v>21</v>
       </c>
       <c r="I37" s="5"/>
-      <c r="J37" s="39"/>
+      <c r="J37" s="40"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="7"/>
@@ -1830,56 +1832,56 @@
         <v>22</v>
       </c>
       <c r="I40" s="5"/>
-      <c r="J40" s="39"/>
+      <c r="J40" s="40"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="51"/>
+      <c r="J41" s="52"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="50"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="39"/>
+      <c r="J43" s="40"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="7"/>
       <c r="H44" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="7"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="52"/>
-    </row>
-    <row r="46" ht="15.75" spans="1:10">
-      <c r="A46" s="34"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="53"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="35"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="37"/>
       <c r="I46" s="11"/>
-      <c r="J46" s="40"/>
+      <c r="J46" s="41"/>
     </row>
     <row r="47" spans="8:10">
-      <c r="H47" s="37"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
     </row>
     <row r="48" spans="8:10">
       <c r="H48" s="6"/>
